--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd6-Alcam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd6-Alcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Alcam</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0582885969792271</v>
+        <v>0.03258166666666667</v>
       </c>
       <c r="H2">
-        <v>0.0582885969792271</v>
+        <v>0.097745</v>
       </c>
       <c r="I2">
-        <v>0.6213769833417155</v>
+        <v>0.07363834603204619</v>
       </c>
       <c r="J2">
-        <v>0.6213769833417155</v>
+        <v>0.07573139740291938</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="N2">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="O2">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="P2">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="Q2">
-        <v>0.0508616949616585</v>
+        <v>0.003740549102222222</v>
       </c>
       <c r="R2">
-        <v>0.0508616949616585</v>
+        <v>0.03366494192</v>
       </c>
       <c r="S2">
-        <v>0.008251252507650905</v>
+        <v>0.0001080626258444143</v>
       </c>
       <c r="T2">
-        <v>0.008251252507650905</v>
+        <v>0.0001117717226338459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0582885969792271</v>
+        <v>0.03258166666666667</v>
       </c>
       <c r="H3">
-        <v>0.0582885969792271</v>
+        <v>0.097745</v>
       </c>
       <c r="I3">
-        <v>0.6213769833417155</v>
+        <v>0.07363834603204619</v>
       </c>
       <c r="J3">
-        <v>0.6213769833417155</v>
+        <v>0.07573139740291938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="N3">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="O3">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="P3">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="Q3">
-        <v>1.459983602639507</v>
+        <v>0.03574281599055556</v>
       </c>
       <c r="R3">
-        <v>1.459983602639507</v>
+        <v>0.321685343915</v>
       </c>
       <c r="S3">
-        <v>0.236851984022351</v>
+        <v>0.001032592393645763</v>
       </c>
       <c r="T3">
-        <v>0.236851984022351</v>
+        <v>0.001068034667069484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.0582885969792271</v>
+        <v>0.03258166666666667</v>
       </c>
       <c r="H4">
-        <v>0.0582885969792271</v>
+        <v>0.097745</v>
       </c>
       <c r="I4">
-        <v>0.6213769833417155</v>
+        <v>0.07363834603204619</v>
       </c>
       <c r="J4">
-        <v>0.6213769833417155</v>
+        <v>0.07573139740291938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="N4">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="O4">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="P4">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="Q4">
-        <v>2.253212005713535</v>
+        <v>0.947748520085</v>
       </c>
       <c r="R4">
-        <v>2.253212005713535</v>
+        <v>8.529736680765</v>
       </c>
       <c r="S4">
-        <v>0.3655367998732279</v>
+        <v>0.02737998911969858</v>
       </c>
       <c r="T4">
-        <v>0.3655367998732279</v>
+        <v>0.02831976852025436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,72 +711,72 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.0582885969792271</v>
+        <v>0.03258166666666667</v>
       </c>
       <c r="H5">
-        <v>0.0582885969792271</v>
+        <v>0.097745</v>
       </c>
       <c r="I5">
-        <v>0.6213769833417155</v>
+        <v>0.07363834603204619</v>
       </c>
       <c r="J5">
-        <v>0.6213769833417155</v>
+        <v>0.07573139740291938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.13545036994005</v>
+        <v>46.59406033333334</v>
       </c>
       <c r="N5">
-        <v>1.13545036994005</v>
+        <v>139.782181</v>
       </c>
       <c r="O5">
-        <v>0.01727928009296931</v>
+        <v>0.5955798346205676</v>
       </c>
       <c r="P5">
-        <v>0.01727928009296931</v>
+        <v>0.5989967522309764</v>
       </c>
       <c r="Q5">
-        <v>0.06618380900334989</v>
+        <v>1.518112142427222</v>
       </c>
       <c r="R5">
-        <v>0.06618380900334989</v>
+        <v>13.663009281845</v>
       </c>
       <c r="S5">
-        <v>0.01073694693848583</v>
+        <v>0.0438575139514982</v>
       </c>
       <c r="T5">
-        <v>0.01073694693848583</v>
+        <v>0.04536286108626211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -782,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.0355169325815167</v>
+        <v>0.03258166666666667</v>
       </c>
       <c r="H6">
-        <v>0.0355169325815167</v>
+        <v>0.097745</v>
       </c>
       <c r="I6">
-        <v>0.3786230166582845</v>
+        <v>0.07363834603204619</v>
       </c>
       <c r="J6">
-        <v>0.3786230166582845</v>
+        <v>0.07573139740291938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.872583963202693</v>
+        <v>1.338819</v>
       </c>
       <c r="N6">
-        <v>0.872583963202693</v>
+        <v>2.677638</v>
       </c>
       <c r="O6">
-        <v>0.0132789799571853</v>
+        <v>0.01711320268940875</v>
       </c>
       <c r="P6">
-        <v>0.0132789799571853</v>
+        <v>0.01147425554656532</v>
       </c>
       <c r="Q6">
-        <v>0.0309915057927827</v>
+        <v>0.043620954385</v>
       </c>
       <c r="R6">
-        <v>0.0309915057927827</v>
+        <v>0.26172572631</v>
       </c>
       <c r="S6">
-        <v>0.005027727449534396</v>
+        <v>0.001260187941359225</v>
       </c>
       <c r="T6">
-        <v>0.005027727449534396</v>
+        <v>0.0008689614066995899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.0355169325815167</v>
+        <v>0.06901166666666667</v>
       </c>
       <c r="H7">
-        <v>0.0355169325815167</v>
+        <v>0.207035</v>
       </c>
       <c r="I7">
-        <v>0.3786230166582845</v>
+        <v>0.1559743717913416</v>
       </c>
       <c r="J7">
-        <v>0.3786230166582845</v>
+        <v>0.1604076920692968</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>25.0474994819281</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="N7">
-        <v>25.0474994819281</v>
+        <v>0.344416</v>
       </c>
       <c r="O7">
-        <v>0.3811727668903667</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="P7">
-        <v>0.3811727668903667</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="Q7">
-        <v>0.8896103504352147</v>
+        <v>0.007922907395555555</v>
       </c>
       <c r="R7">
-        <v>0.8896103504352147</v>
+        <v>0.07130616655999999</v>
       </c>
       <c r="S7">
-        <v>0.1443207828680157</v>
+        <v>0.0002288889021607071</v>
       </c>
       <c r="T7">
-        <v>0.1443207828680157</v>
+        <v>0.0002367451899892403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.0355169325815167</v>
+        <v>0.06901166666666667</v>
       </c>
       <c r="H8">
-        <v>0.0355169325815167</v>
+        <v>0.207035</v>
       </c>
       <c r="I8">
-        <v>0.3786230166582845</v>
+        <v>0.1559743717913416</v>
       </c>
       <c r="J8">
-        <v>0.3786230166582845</v>
+        <v>0.1604076920692968</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.656137263289</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="N8">
-        <v>38.656137263289</v>
+        <v>3.291067</v>
       </c>
       <c r="O8">
-        <v>0.5882689730594789</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="P8">
-        <v>0.5882689730594789</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="Q8">
-        <v>1.372947421042091</v>
+        <v>0.07570733959388888</v>
       </c>
       <c r="R8">
-        <v>1.372947421042091</v>
+        <v>0.681366056345</v>
       </c>
       <c r="S8">
-        <v>0.222732173186251</v>
+        <v>0.002187147846114385</v>
       </c>
       <c r="T8">
-        <v>0.222732173186251</v>
+        <v>0.002262218602452613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,1115 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.06901166666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.207035</v>
+      </c>
+      <c r="I9">
+        <v>0.1559743717913416</v>
+      </c>
+      <c r="J9">
+        <v>0.1604076920692968</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>29.088399</v>
+      </c>
+      <c r="N9">
+        <v>87.265197</v>
+      </c>
+      <c r="O9">
+        <v>0.3718170028938899</v>
+      </c>
+      <c r="P9">
+        <v>0.3739501645477712</v>
+      </c>
+      <c r="Q9">
+        <v>2.007438895655</v>
+      </c>
+      <c r="R9">
+        <v>18.066950060895</v>
+      </c>
+      <c r="S9">
+        <v>0.05799392344771391</v>
+      </c>
+      <c r="T9">
+        <v>0.05998448284404175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.06901166666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.207035</v>
+      </c>
+      <c r="I10">
+        <v>0.1559743717913416</v>
+      </c>
+      <c r="J10">
+        <v>0.1604076920692968</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="N10">
+        <v>139.782181</v>
+      </c>
+      <c r="O10">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="P10">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="Q10">
+        <v>3.215533760370556</v>
+      </c>
+      <c r="R10">
+        <v>28.939803843335</v>
+      </c>
+      <c r="S10">
+        <v>0.09289519055653414</v>
+      </c>
+      <c r="T10">
+        <v>0.09608368658237533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.0355169325815167</v>
-      </c>
-      <c r="H9">
-        <v>0.0355169325815167</v>
-      </c>
-      <c r="I9">
-        <v>0.3786230166582845</v>
-      </c>
-      <c r="J9">
-        <v>0.3786230166582845</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.13545036994005</v>
-      </c>
-      <c r="N9">
-        <v>1.13545036994005</v>
-      </c>
-      <c r="O9">
-        <v>0.01727928009296931</v>
-      </c>
-      <c r="P9">
-        <v>0.01727928009296931</v>
-      </c>
-      <c r="Q9">
-        <v>0.04032771423881895</v>
-      </c>
-      <c r="R9">
-        <v>0.04032771423881895</v>
-      </c>
-      <c r="S9">
-        <v>0.006542333154483482</v>
-      </c>
-      <c r="T9">
-        <v>0.006542333154483482</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.06901166666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.207035</v>
+      </c>
+      <c r="I11">
+        <v>0.1559743717913416</v>
+      </c>
+      <c r="J11">
+        <v>0.1604076920692968</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.338819</v>
+      </c>
+      <c r="N11">
+        <v>2.677638</v>
+      </c>
+      <c r="O11">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="P11">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="Q11">
+        <v>0.092394130555</v>
+      </c>
+      <c r="R11">
+        <v>0.5543647833299999</v>
+      </c>
+      <c r="S11">
+        <v>0.002669221038818427</v>
+      </c>
+      <c r="T11">
+        <v>0.00184055885043787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.13389</v>
+      </c>
+      <c r="H12">
+        <v>0.40167</v>
+      </c>
+      <c r="I12">
+        <v>0.3026069307963782</v>
+      </c>
+      <c r="J12">
+        <v>0.3112080453714321</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1148053333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.344416</v>
+      </c>
+      <c r="O12">
+        <v>0.001467477634511064</v>
+      </c>
+      <c r="P12">
+        <v>0.001475896741204689</v>
+      </c>
+      <c r="Q12">
+        <v>0.01537128608</v>
+      </c>
+      <c r="R12">
+        <v>0.13834157472</v>
+      </c>
+      <c r="S12">
+        <v>0.0004440689029917223</v>
+      </c>
+      <c r="T12">
+        <v>0.0004593109400003775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.13389</v>
+      </c>
+      <c r="H13">
+        <v>0.40167</v>
+      </c>
+      <c r="I13">
+        <v>0.3026069307963782</v>
+      </c>
+      <c r="J13">
+        <v>0.3112080453714321</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.097022333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.291067</v>
+      </c>
+      <c r="O13">
+        <v>0.01402248216162264</v>
+      </c>
+      <c r="P13">
+        <v>0.01410293093348245</v>
+      </c>
+      <c r="Q13">
+        <v>0.14688032021</v>
+      </c>
+      <c r="R13">
+        <v>1.32192288189</v>
+      </c>
+      <c r="S13">
+        <v>0.004243300289075591</v>
+      </c>
+      <c r="T13">
+        <v>0.004388945569817379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.13389</v>
+      </c>
+      <c r="H14">
+        <v>0.40167</v>
+      </c>
+      <c r="I14">
+        <v>0.3026069307963782</v>
+      </c>
+      <c r="J14">
+        <v>0.3112080453714321</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>29.088399</v>
+      </c>
+      <c r="N14">
+        <v>87.265197</v>
+      </c>
+      <c r="O14">
+        <v>0.3718170028938899</v>
+      </c>
+      <c r="P14">
+        <v>0.3739501645477712</v>
+      </c>
+      <c r="Q14">
+        <v>3.894645742109999</v>
+      </c>
+      <c r="R14">
+        <v>35.05181167899</v>
+      </c>
+      <c r="S14">
+        <v>0.1125144020636281</v>
+      </c>
+      <c r="T14">
+        <v>0.1163762997752373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.13389</v>
+      </c>
+      <c r="H15">
+        <v>0.40167</v>
+      </c>
+      <c r="I15">
+        <v>0.3026069307963782</v>
+      </c>
+      <c r="J15">
+        <v>0.3112080453714321</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="N15">
+        <v>139.782181</v>
+      </c>
+      <c r="O15">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="P15">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="Q15">
+        <v>6.23847873803</v>
+      </c>
+      <c r="R15">
+        <v>56.14630864227</v>
+      </c>
+      <c r="S15">
+        <v>0.1802265857987445</v>
+      </c>
+      <c r="T15">
+        <v>0.1864126084456382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.13389</v>
+      </c>
+      <c r="H16">
+        <v>0.40167</v>
+      </c>
+      <c r="I16">
+        <v>0.3026069307963782</v>
+      </c>
+      <c r="J16">
+        <v>0.3112080453714321</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.338819</v>
+      </c>
+      <c r="N16">
+        <v>2.677638</v>
+      </c>
+      <c r="O16">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="P16">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="Q16">
+        <v>0.17925447591</v>
+      </c>
+      <c r="R16">
+        <v>1.07552685546</v>
+      </c>
+      <c r="S16">
+        <v>0.005178573741938307</v>
+      </c>
+      <c r="T16">
+        <v>0.003570880640738905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1702863333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.510859</v>
+      </c>
+      <c r="I17">
+        <v>0.3848668659837852</v>
+      </c>
+      <c r="J17">
+        <v>0.3958060867139802</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1148053333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.344416</v>
+      </c>
+      <c r="O17">
+        <v>0.001467477634511064</v>
+      </c>
+      <c r="P17">
+        <v>0.001475896741204689</v>
+      </c>
+      <c r="Q17">
+        <v>0.01954977926044444</v>
+      </c>
+      <c r="R17">
+        <v>0.175948013344</v>
+      </c>
+      <c r="S17">
+        <v>0.0005647835180955717</v>
+      </c>
+      <c r="T17">
+        <v>0.0005841689135301437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1702863333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.510859</v>
+      </c>
+      <c r="I18">
+        <v>0.3848668659837852</v>
+      </c>
+      <c r="J18">
+        <v>0.3958060867139802</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.097022333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.291067</v>
+      </c>
+      <c r="O18">
+        <v>0.01402248216162264</v>
+      </c>
+      <c r="P18">
+        <v>0.01410293093348245</v>
+      </c>
+      <c r="Q18">
+        <v>0.1868079107281111</v>
+      </c>
+      <c r="R18">
+        <v>1.681271196553</v>
+      </c>
+      <c r="S18">
+        <v>0.00539678876285724</v>
+      </c>
+      <c r="T18">
+        <v>0.005582025903979227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1702863333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.510859</v>
+      </c>
+      <c r="I19">
+        <v>0.3848668659837852</v>
+      </c>
+      <c r="J19">
+        <v>0.3958060867139802</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.088399</v>
+      </c>
+      <c r="N19">
+        <v>87.265197</v>
+      </c>
+      <c r="O19">
+        <v>0.3718170028938899</v>
+      </c>
+      <c r="P19">
+        <v>0.3739501645477712</v>
+      </c>
+      <c r="Q19">
+        <v>4.953356808246999</v>
+      </c>
+      <c r="R19">
+        <v>44.580211274223</v>
+      </c>
+      <c r="S19">
+        <v>0.1431000446232554</v>
+      </c>
+      <c r="T19">
+        <v>0.1480117512557023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1702863333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.510859</v>
+      </c>
+      <c r="I20">
+        <v>0.3848668659837852</v>
+      </c>
+      <c r="J20">
+        <v>0.3958060867139802</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="N20">
+        <v>139.782181</v>
+      </c>
+      <c r="O20">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="P20">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="Q20">
+        <v>7.934331689275445</v>
+      </c>
+      <c r="R20">
+        <v>71.40898520347899</v>
+      </c>
+      <c r="S20">
+        <v>0.2292189443935589</v>
+      </c>
+      <c r="T20">
+        <v>0.2370865604549263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1702863333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.510859</v>
+      </c>
+      <c r="I21">
+        <v>0.3848668659837852</v>
+      </c>
+      <c r="J21">
+        <v>0.3958060867139802</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.338819</v>
+      </c>
+      <c r="N21">
+        <v>2.677638</v>
+      </c>
+      <c r="O21">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="P21">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="Q21">
+        <v>0.227982578507</v>
+      </c>
+      <c r="R21">
+        <v>1.367895471042</v>
+      </c>
+      <c r="S21">
+        <v>0.006586304686018029</v>
+      </c>
+      <c r="T21">
+        <v>0.004541580185842199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.0366855</v>
+      </c>
+      <c r="H22">
+        <v>0.07337100000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.08291348539644884</v>
+      </c>
+      <c r="J22">
+        <v>0.05684677844237147</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1148053333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.344416</v>
+      </c>
+      <c r="O22">
+        <v>0.001467477634511064</v>
+      </c>
+      <c r="P22">
+        <v>0.001475896741204689</v>
+      </c>
+      <c r="Q22">
+        <v>0.004211691056</v>
+      </c>
+      <c r="R22">
+        <v>0.025270146336</v>
+      </c>
+      <c r="S22">
+        <v>0.0001216736854186484</v>
+      </c>
+      <c r="T22">
+        <v>8.389997505108099E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.0366855</v>
+      </c>
+      <c r="H23">
+        <v>0.07337100000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.08291348539644884</v>
+      </c>
+      <c r="J23">
+        <v>0.05684677844237147</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.097022333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.291067</v>
+      </c>
+      <c r="O23">
+        <v>0.01402248216162264</v>
+      </c>
+      <c r="P23">
+        <v>0.01410293093348245</v>
+      </c>
+      <c r="Q23">
+        <v>0.0402448128095</v>
+      </c>
+      <c r="R23">
+        <v>0.241468876857</v>
+      </c>
+      <c r="S23">
+        <v>0.001162652869929663</v>
+      </c>
+      <c r="T23">
+        <v>0.0008017061901637438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.0366855</v>
+      </c>
+      <c r="H24">
+        <v>0.07337100000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.08291348539644884</v>
+      </c>
+      <c r="J24">
+        <v>0.05684677844237147</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>29.088399</v>
+      </c>
+      <c r="N24">
+        <v>87.265197</v>
+      </c>
+      <c r="O24">
+        <v>0.3718170028938899</v>
+      </c>
+      <c r="P24">
+        <v>0.3739501645477712</v>
+      </c>
+      <c r="Q24">
+        <v>1.0671224615145</v>
+      </c>
+      <c r="R24">
+        <v>6.402734769087001</v>
+      </c>
+      <c r="S24">
+        <v>0.03082864363959392</v>
+      </c>
+      <c r="T24">
+        <v>0.0212578621525355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.0366855</v>
+      </c>
+      <c r="H25">
+        <v>0.07337100000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.08291348539644884</v>
+      </c>
+      <c r="J25">
+        <v>0.05684677844237147</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="N25">
+        <v>139.782181</v>
+      </c>
+      <c r="O25">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="P25">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="Q25">
+        <v>1.7093264003585</v>
+      </c>
+      <c r="R25">
+        <v>10.255958402151</v>
+      </c>
+      <c r="S25">
+        <v>0.04938159992023185</v>
+      </c>
+      <c r="T25">
+        <v>0.03405103566177439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.0366855</v>
+      </c>
+      <c r="H26">
+        <v>0.07337100000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.08291348539644884</v>
+      </c>
+      <c r="J26">
+        <v>0.05684677844237147</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.338819</v>
+      </c>
+      <c r="N26">
+        <v>2.677638</v>
+      </c>
+      <c r="O26">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="P26">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="Q26">
+        <v>0.0491152444245</v>
+      </c>
+      <c r="R26">
+        <v>0.196460977698</v>
+      </c>
+      <c r="S26">
+        <v>0.001418915281274761</v>
+      </c>
+      <c r="T26">
+        <v>0.0006522744628467505</v>
       </c>
     </row>
   </sheetData>
